--- a/variant_20/Задание 18/18.xlsx
+++ b/variant_20/Задание 18/18.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sr/Yandex.Disk.localized/Компьютер/Различные работы/5 вариантов/18/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8674ED8-CD9B-AC49-90A5-9936B2003E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="7760" windowWidth="27640" windowHeight="16860" xr2:uid="{921D613A-7D98-D942-AA00-00A103D6A600}"/>
+    <workbookView xWindow="3120" yWindow="7755" windowWidth="27645" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -35,13 +29,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -118,7 +127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -170,7 +179,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -364,23 +373,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E0EBFF-AD5F-C049-A771-884C6F0C3BD0}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O15"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="11" width="5.25" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="6.125" customWidth="1"/>
+    <col min="15" max="15" width="5.75" customWidth="1"/>
+    <col min="17" max="17" width="5.375" customWidth="1"/>
+    <col min="18" max="18" width="5.625" customWidth="1"/>
+    <col min="19" max="19" width="5.125" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="21" max="21" width="6.125" customWidth="1"/>
+    <col min="22" max="22" width="5" customWidth="1"/>
+    <col min="23" max="25" width="5.25" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="5.125" customWidth="1"/>
+    <col min="28" max="28" width="5.75" customWidth="1"/>
+    <col min="29" max="29" width="5" customWidth="1"/>
+    <col min="30" max="30" width="5.75" customWidth="1"/>
+    <col min="31" max="31" width="5.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>22</v>
       </c>
@@ -427,7 +464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>28</v>
       </c>
@@ -474,7 +511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>29</v>
       </c>
@@ -521,7 +558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -568,7 +605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -615,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -662,7 +699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19</v>
       </c>
@@ -709,7 +746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -756,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -803,7 +840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -850,7 +887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22</v>
       </c>
@@ -897,7 +934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
@@ -944,7 +981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -991,7 +1028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1038,7 +1075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1083,9 +1120,1840 @@
       </c>
       <c r="O15">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A1 + MAX(A16)</f>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B30" si="0">B1 + MAX(B16,A17)</f>
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C30" si="1">C1 + MAX(C16,B17)</f>
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D30" si="2">D1 + MAX(D16,C17)</f>
+        <v>84</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E30" si="3">E1 + MAX(E16,D17)</f>
+        <v>109</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F30" si="4">F1 + MAX(F16,E17)</f>
+        <v>121</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G30" si="5">G1 + MAX(G16,F17)</f>
+        <v>138</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H30" si="6">H1 + MAX(H16,G17)</f>
+        <v>154</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I30" si="7">I1 + MAX(I16,H17)</f>
+        <v>170</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J30" si="8">J1 + MAX(J16,I17)</f>
+        <v>191</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K30" si="9">K1 + MAX(K16,J17)</f>
+        <v>214</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L30" si="10">L1 + MAX(L16,K17)</f>
+        <v>240</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M30" si="11">M1 + MAX(M16,L17)</f>
+        <v>251</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:O30" si="12">N1 + MAX(N16,M17)</f>
+        <v>267</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
+        <v>283</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17:Q31" si="13">A1 + MIN(Q16,P17)</f>
+        <v>22</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:R31" si="14">B1 + MIN(R16,Q17)</f>
+        <v>43</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:S31" si="15">C1 + MIN(S16,R17)</f>
+        <v>55</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ref="T17:T31" si="16">D1 + MIN(T16,S17)</f>
+        <v>84</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ref="U17:U31" si="17">E1 + MIN(U16,T17)</f>
+        <v>109</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ref="V17:V31" si="18">F1 + MIN(V16,U17)</f>
+        <v>121</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ref="W17:W31" si="19">G1 + MIN(W16,V17)</f>
+        <v>138</v>
+      </c>
+      <c r="X17">
+        <f t="shared" ref="X17:X31" si="20">H1 + MIN(X16,W17)</f>
+        <v>154</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" ref="Y17:Y31" si="21">I1 + MIN(Y16,X17)</f>
+        <v>170</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" ref="Z17:Z31" si="22">J1 + MIN(Z16,Y17)</f>
+        <v>191</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" ref="AA17:AA31" si="23">K1 + MIN(AA16,Z17)</f>
+        <v>214</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" ref="AB17:AB31" si="24">L1 + MIN(AB16,AA17)</f>
+        <v>240</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" ref="AC17:AC31" si="25">M1 + MIN(AC16,AB17)</f>
+        <v>251</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" ref="AD17:AD31" si="26">N1 + MIN(AD16,AC17)</f>
+        <v>267</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" ref="AE17:AE30" si="27">O1 + MIN(AE16,AD17)</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ref="A18:A31" si="28">A2 + MAX(A17)</f>
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>197</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>221</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>238</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>248</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>278</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>304</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>328</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O30" si="29">O2 + MAX(O17,N18)</f>
+        <v>351</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="18"/>
+        <v>138</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="19"/>
+        <v>160</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="20"/>
+        <v>178</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="21"/>
+        <v>194</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="22"/>
+        <v>208</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="23"/>
+        <v>218</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="24"/>
+        <v>248</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="25"/>
+        <v>274</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="26"/>
+        <v>291</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="27"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="28"/>
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>189</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>211</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>229</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>284</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="9"/>
+        <v>309</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>325</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="11"/>
+        <v>336</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="12"/>
+        <v>346</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="29"/>
+        <v>375</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="13"/>
+        <v>79</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="14"/>
+        <v>66</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="15"/>
+        <v>84</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="16"/>
+        <v>104</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="17"/>
+        <v>130</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="18"/>
+        <v>160</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="19"/>
+        <v>182</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="20"/>
+        <v>196</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="21"/>
+        <v>220</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="22"/>
+        <v>237</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="23"/>
+        <v>243</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="24"/>
+        <v>259</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="25"/>
+        <v>270</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="26"/>
+        <v>280</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="27"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="28"/>
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>268</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>286</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>305</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="9"/>
+        <v>320</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>352</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="11"/>
+        <v>382</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>407</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="29"/>
+        <v>436</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="15"/>
+        <v>107</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="16"/>
+        <v>115</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="17"/>
+        <v>139</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="18"/>
+        <v>166</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="19"/>
+        <v>190</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="20"/>
+        <v>218</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="21"/>
+        <v>236</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="22"/>
+        <v>255</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="23"/>
+        <v>254</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="24"/>
+        <v>281</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="25"/>
+        <v>300</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="26"/>
+        <v>305</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="27"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="28"/>
+        <v>107</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>243</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>259</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>314</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="8"/>
+        <v>328</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="9"/>
+        <v>358</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="10"/>
+        <v>380</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="11"/>
+        <v>397</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="12"/>
+        <v>418</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="29"/>
+        <v>452</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="13"/>
+        <v>107</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="14"/>
+        <v>103</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="15"/>
+        <v>125</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="16"/>
+        <v>130</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="17"/>
+        <v>144</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="18"/>
+        <v>171</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="19"/>
+        <v>187</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="20"/>
+        <v>209</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="21"/>
+        <v>233</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="22"/>
+        <v>247</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="23"/>
+        <v>277</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="24"/>
+        <v>299</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="25"/>
+        <v>314</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="26"/>
+        <v>316</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="27"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="28"/>
+        <v>131</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>274</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>301</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>329</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="8"/>
+        <v>340</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="9"/>
+        <v>373</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="10"/>
+        <v>402</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="11"/>
+        <v>426</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="12"/>
+        <v>437</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="29"/>
+        <v>477</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="13"/>
+        <v>131</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="14"/>
+        <v>129</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="15"/>
+        <v>147</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="16"/>
+        <v>141</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="17"/>
+        <v>171</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="18"/>
+        <v>187</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="19"/>
+        <v>202</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="20"/>
+        <v>213</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="21"/>
+        <v>228</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="22"/>
+        <v>239</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="23"/>
+        <v>254</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="24"/>
+        <v>276</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="25"/>
+        <v>300</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="26"/>
+        <v>311</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="27"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="28"/>
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>289</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>317</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="8"/>
+        <v>362</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="9"/>
+        <v>386</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="10"/>
+        <v>417</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="11"/>
+        <v>449</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="12"/>
+        <v>459</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="29"/>
+        <v>500</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="14"/>
+        <v>153</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="15"/>
+        <v>175</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="16"/>
+        <v>169</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="17"/>
+        <v>191</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="18"/>
+        <v>201</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="19"/>
+        <v>216</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="20"/>
+        <v>229</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="21"/>
+        <v>249</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="22"/>
+        <v>251</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="23"/>
+        <v>264</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="24"/>
+        <v>279</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="25"/>
+        <v>302</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="26"/>
+        <v>312</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="27"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="28"/>
+        <v>165</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>278</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>303</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>347</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>374</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="8"/>
+        <v>391</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="9"/>
+        <v>415</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="10"/>
+        <v>434</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="11"/>
+        <v>466</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="12"/>
+        <v>491</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="29"/>
+        <v>510</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="14"/>
+        <v>163</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="15"/>
+        <v>186</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="16"/>
+        <v>187</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="17"/>
+        <v>206</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="18"/>
+        <v>213</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="19"/>
+        <v>226</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="21"/>
+        <v>273</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="22"/>
+        <v>268</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="23"/>
+        <v>288</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="24"/>
+        <v>296</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="25"/>
+        <v>313</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="26"/>
+        <v>337</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="27"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="28"/>
+        <v>182</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>323</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>379</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>405</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="8"/>
+        <v>424</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>448</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="10"/>
+        <v>462</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="11"/>
+        <v>481</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="29"/>
+        <v>548</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="13"/>
+        <v>182</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="14"/>
+        <v>174</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="15"/>
+        <v>195</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="16"/>
+        <v>216</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="17"/>
+        <v>222</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="18"/>
+        <v>236</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="19"/>
+        <v>253</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="20"/>
+        <v>282</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="21"/>
+        <v>299</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="22"/>
+        <v>287</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="23"/>
+        <v>311</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="24"/>
+        <v>310</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="25"/>
+        <v>325</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="26"/>
+        <v>354</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="27"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="28"/>
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>358</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>395</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>416</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="8"/>
+        <v>454</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>470</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>480</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="11"/>
+        <v>511</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="12"/>
+        <v>546</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="29"/>
+        <v>566</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="14"/>
+        <v>191</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="15"/>
+        <v>205</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="16"/>
+        <v>219</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="17"/>
+        <v>247</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="18"/>
+        <v>266</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="19"/>
+        <v>271</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="20"/>
+        <v>287</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="21"/>
+        <v>298</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="22"/>
+        <v>317</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="23"/>
+        <v>327</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="24"/>
+        <v>320</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="25"/>
+        <v>350</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="26"/>
+        <v>376</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="27"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="28"/>
+        <v>222</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>368</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>386</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>409</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="7"/>
+        <v>432</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="8"/>
+        <v>475</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="9"/>
+        <v>502</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>516</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="11"/>
+        <v>546</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="12"/>
+        <v>561</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="29"/>
+        <v>578</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="13"/>
+        <v>222</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="15"/>
+        <v>227</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="16"/>
+        <v>237</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="17"/>
+        <v>254</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="18"/>
+        <v>264</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="19"/>
+        <v>274</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="20"/>
+        <v>288</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="21"/>
+        <v>304</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="22"/>
+        <v>325</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="23"/>
+        <v>352</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="24"/>
+        <v>334</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="25"/>
+        <v>364</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="26"/>
+        <v>379</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="27"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="28"/>
+        <v>237</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>398</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>425</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>470</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>488</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="9"/>
+        <v>525</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="10"/>
+        <v>538</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="11"/>
+        <v>560</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="12"/>
+        <v>576</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="29"/>
+        <v>593</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="13"/>
+        <v>237</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="14"/>
+        <v>224</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="15"/>
+        <v>244</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="16"/>
+        <v>265</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="17"/>
+        <v>277</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="18"/>
+        <v>294</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="19"/>
+        <v>301</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="20"/>
+        <v>303</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="21"/>
+        <v>333</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="22"/>
+        <v>338</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="23"/>
+        <v>361</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="24"/>
+        <v>347</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="25"/>
+        <v>361</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="26"/>
+        <v>376</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="27"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="28"/>
+        <v>258</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>373</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>387</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>426</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>463</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>488</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>506</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="9"/>
+        <v>541</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="10"/>
+        <v>553</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="11"/>
+        <v>575</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="12"/>
+        <v>597</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="29"/>
+        <v>626</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="13"/>
+        <v>258</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="15"/>
+        <v>253</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="16"/>
+        <v>282</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="17"/>
+        <v>291</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="18"/>
+        <v>319</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="19"/>
+        <v>325</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="20"/>
+        <v>316</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="21"/>
+        <v>334</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="22"/>
+        <v>352</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="23"/>
+        <v>368</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="24"/>
+        <v>359</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="25"/>
+        <v>374</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="26"/>
+        <v>395</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="27"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="28"/>
+        <v>281</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>391</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>402</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>466</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>490</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>503</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="8"/>
+        <v>516</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="9"/>
+        <v>556</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="10"/>
+        <v>567</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="11"/>
+        <v>589</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="12"/>
+        <v>621</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="29"/>
+        <v>654</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="13"/>
+        <v>281</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="14"/>
+        <v>257</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="15"/>
+        <v>270</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="16"/>
+        <v>288</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="17"/>
+        <v>299</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="18"/>
+        <v>313</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="19"/>
+        <v>329</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="20"/>
+        <v>340</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="21"/>
+        <v>347</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="22"/>
+        <v>357</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="23"/>
+        <v>372</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="24"/>
+        <v>370</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="25"/>
+        <v>384</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="26"/>
+        <v>408</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="27"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="28"/>
+        <v>295</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:N31" si="30">B15 + MAX(B30,A31)</f>
+        <v>311</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="30"/>
+        <v>353</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="30"/>
+        <v>405</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="30"/>
+        <v>430</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="30"/>
+        <v>465</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="30"/>
+        <v>491</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="30"/>
+        <v>520</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="30"/>
+        <v>545</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="30"/>
+        <v>569</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="30"/>
+        <v>590</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="30"/>
+        <v>610</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="30"/>
+        <v>639</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="30"/>
+        <v>657</v>
+      </c>
+      <c r="O31" s="1">
+        <f>O15 + MAX(O30,N31)</f>
+        <v>669</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="13"/>
+        <v>295</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="14"/>
+        <v>270</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="15"/>
+        <v>283</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="16"/>
+        <v>297</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="17"/>
+        <v>322</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="18"/>
+        <v>338</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="19"/>
+        <v>354</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="20"/>
+        <v>369</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="21"/>
+        <v>372</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="22"/>
+        <v>381</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="23"/>
+        <v>393</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="24"/>
+        <v>390</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="25"/>
+        <v>413</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="26"/>
+        <v>426</v>
+      </c>
+      <c r="AE31" s="1">
+        <f>O15 + MIN(AE30,AD31)</f>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>